--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv0\Desktop\Misc\Azrieli\Year4\FinalProject\TasksSim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD364814-1B83-40C8-963E-2CC7AF5A3277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2208" yWindow="2544" windowWidth="25128" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MaxRuntimeFirst" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +332,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5442282.407409668</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+      <c r="C1">
+        <v>0.3</v>
+      </c>
+      <c r="D1">
+        <v>0.4</v>
+      </c>
+      <c r="E1">
+        <v>0.5</v>
+      </c>
+      <c r="F1">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G1">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H1">
+        <v>0.8</v>
+      </c>
+      <c r="I1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>94973.148147583008</v>
+      </c>
+      <c r="B2">
+        <v>101754362.7781982</v>
+      </c>
+      <c r="C2">
+        <v>103439977.22257081</v>
+      </c>
+      <c r="D2">
+        <v>104039521.85169069</v>
+      </c>
+      <c r="E2">
+        <v>104702866.6664001</v>
+      </c>
+      <c r="F2">
+        <v>102086890.184967</v>
+      </c>
+      <c r="G2">
+        <v>103904323.1474915</v>
+      </c>
+      <c r="H2">
+        <v>104725303.33363651</v>
+      </c>
+      <c r="I2">
+        <v>102799408.7034851</v>
+      </c>
+      <c r="J2">
+        <v>103921255.37055659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>11745880.555557249</v>
+      </c>
+      <c r="B3">
+        <v>104101626.1104065</v>
+      </c>
+      <c r="C3">
+        <v>102955019.444519</v>
+      </c>
+      <c r="D3">
+        <v>103506021.8514282</v>
+      </c>
+      <c r="E3">
+        <v>105319586.8520508</v>
+      </c>
+      <c r="F3">
+        <v>103442001.8518005</v>
+      </c>
+      <c r="G3">
+        <v>105554180.9261536</v>
+      </c>
+      <c r="H3">
+        <v>103402012.2221252</v>
+      </c>
+      <c r="I3">
+        <v>103384954.073938</v>
+      </c>
+      <c r="J3">
+        <v>104236394.4444702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>101889940.9261353</v>
+      </c>
+      <c r="C4">
+        <v>104131162.7781616</v>
+      </c>
+      <c r="D4">
+        <v>103218751.851355</v>
+      </c>
+      <c r="E4">
+        <v>103204377.77811889</v>
+      </c>
+      <c r="F4">
+        <v>101136545.55504151</v>
+      </c>
+      <c r="G4">
+        <v>104416279.4444824</v>
+      </c>
+      <c r="H4">
+        <v>103793333.70430911</v>
+      </c>
+      <c r="I4">
+        <v>103735048.8889709</v>
+      </c>
+      <c r="J4">
+        <v>101922700.0005554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,39 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv0\Desktop\Misc\Azrieli\Year4\FinalProject\TasksSim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD364814-1B83-40C8-963E-2CC7AF5A3277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="2544" windowWidth="25128" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MaxRuntimeFirst" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MinRuntimeFirst" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MaxRuntimeFirst" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -332,147 +387,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>isMobileye</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1405453166158874</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7242504625385903</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01323421737555031</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6751111671121003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5698</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9939105369949719</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9924300151973715</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4907259599370065</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.294616613689842</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>123</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8931802351989251</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2089997435891695</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8477991266377382</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7467991408052627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>isMobileye</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>5442282.407409668</v>
       </c>
-      <c r="B1">
-        <v>0.2</v>
-      </c>
-      <c r="C1">
-        <v>0.3</v>
-      </c>
-      <c r="D1">
-        <v>0.4</v>
-      </c>
-      <c r="E1">
-        <v>0.5</v>
-      </c>
-      <c r="F1">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G1">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H1">
-        <v>0.8</v>
-      </c>
-      <c r="I1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>94973.148147583008</v>
-      </c>
-      <c r="B2">
-        <v>101754362.7781982</v>
-      </c>
-      <c r="C2">
-        <v>103439977.22257081</v>
-      </c>
-      <c r="D2">
-        <v>104039521.85169069</v>
-      </c>
-      <c r="E2">
-        <v>104702866.6664001</v>
-      </c>
-      <c r="F2">
-        <v>102086890.184967</v>
-      </c>
-      <c r="G2">
-        <v>103904323.1474915</v>
-      </c>
-      <c r="H2">
-        <v>104725303.33363651</v>
-      </c>
-      <c r="I2">
-        <v>102799408.7034851</v>
-      </c>
-      <c r="J2">
-        <v>103921255.37055659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>11745880.555557249</v>
-      </c>
-      <c r="B3">
-        <v>104101626.1104065</v>
-      </c>
-      <c r="C3">
-        <v>102955019.444519</v>
-      </c>
-      <c r="D3">
-        <v>103506021.8514282</v>
-      </c>
-      <c r="E3">
-        <v>105319586.8520508</v>
-      </c>
-      <c r="F3">
-        <v>103442001.8518005</v>
-      </c>
-      <c r="G3">
-        <v>105554180.9261536</v>
-      </c>
-      <c r="H3">
-        <v>103402012.2221252</v>
-      </c>
-      <c r="I3">
-        <v>103384954.073938</v>
-      </c>
-      <c r="J3">
-        <v>104236394.4444702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>101889940.9261353</v>
-      </c>
-      <c r="C4">
-        <v>104131162.7781616</v>
-      </c>
-      <c r="D4">
-        <v>103218751.851355</v>
-      </c>
-      <c r="E4">
-        <v>103204377.77811889</v>
-      </c>
-      <c r="F4">
-        <v>101136545.55504151</v>
-      </c>
-      <c r="G4">
-        <v>104416279.4444824</v>
-      </c>
-      <c r="H4">
-        <v>103793333.70430911</v>
-      </c>
-      <c r="I4">
-        <v>103735048.8889709</v>
-      </c>
-      <c r="J4">
-        <v>101922700.0005554</v>
+      <c r="B2" t="n">
+        <v>93510836.66735229</v>
+      </c>
+      <c r="C2" t="n">
+        <v>93750035.74104309</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94141519.81435852</v>
+      </c>
+      <c r="E2" t="n">
+        <v>93033254.07445678</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93664329.44447327</v>
+      </c>
+      <c r="G2" t="n">
+        <v>95412492.77789918</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>94973.14814758301</v>
+      </c>
+      <c r="B3" t="n">
+        <v>94093862.22245483</v>
+      </c>
+      <c r="C3" t="n">
+        <v>94691193.7042511</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91083095.55535278</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92721233.51895447</v>
+      </c>
+      <c r="F3" t="n">
+        <v>93600769.25879212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>94143778.14832763</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>639600</v>
+      </c>
+      <c r="B4" t="n">
+        <v>93671604.25920105</v>
+      </c>
+      <c r="C4" t="n">
+        <v>94348073.88815919</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95678548.70374756</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92609268.33341369</v>
+      </c>
+      <c r="F4" t="n">
+        <v>94301165.9256134</v>
+      </c>
+      <c r="G4" t="n">
+        <v>92589805.7409912</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>250073.148147583</v>
+      </c>
+      <c r="B5" t="n">
+        <v>93263995.92583314</v>
+      </c>
+      <c r="C5" t="n">
+        <v>91922222.22146301</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92949049.81499024</v>
+      </c>
+      <c r="E5" t="n">
+        <v>94274497.40783997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91874340.00023194</v>
+      </c>
+      <c r="G5" t="n">
+        <v>93364064.81480102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11745880.55555725</v>
+      </c>
+      <c r="B6" t="n">
+        <v>93654577.22215271</v>
+      </c>
+      <c r="C6" t="n">
+        <v>91666518.14794616</v>
+      </c>
+      <c r="D6" t="n">
+        <v>93954761.85169068</v>
+      </c>
+      <c r="E6" t="n">
+        <v>93719775.18569031</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93332770.18517761</v>
+      </c>
+      <c r="G6" t="n">
+        <v>92931649.62952881</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>243931.4814758301</v>
+      </c>
+      <c r="B7" t="n">
+        <v>94311778.51905212</v>
+      </c>
+      <c r="C7" t="n">
+        <v>94072194.8149353</v>
+      </c>
+      <c r="D7" t="n">
+        <v>93267331.48100586</v>
+      </c>
+      <c r="E7" t="n">
+        <v>92563135.18508606</v>
+      </c>
+      <c r="F7" t="n">
+        <v>92346662.22224121</v>
+      </c>
+      <c r="G7" t="n">
+        <v>93121436.85232544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>394298.148147583</v>
+      </c>
+      <c r="B8" t="n">
+        <v>92705511.48220214</v>
+      </c>
+      <c r="C8" t="n">
+        <v>93814487.22208862</v>
+      </c>
+      <c r="D8" t="n">
+        <v>91860402.03677979</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92883137.77757263</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91308440.74081115</v>
+      </c>
+      <c r="G8" t="n">
+        <v>93469465.5555481</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3226,6 +3226,15 @@
           <t>gsf.000390.prof.json</t>
         </is>
       </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -496,22 +496,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H1" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
@@ -8120,25 +8120,25 @@
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="9" t="n"/>
       <c r="B1" s="9" t="n">
-        <v>331.4814453125</v>
+        <v>4832.407409667969</v>
       </c>
       <c r="C1" s="9" t="n">
-        <v>24029.6296081543</v>
+        <v>43790.74072265625</v>
       </c>
       <c r="D1" s="9" t="n">
-        <v>691823.1480712891</v>
+        <v>231532.4074707031</v>
       </c>
       <c r="E1" s="9" t="n">
-        <v>182823.1481628418</v>
+        <v>322.2222900390625</v>
       </c>
       <c r="F1" s="9" t="n">
-        <v>1157.407348632812</v>
+        <v>808.3333435058594</v>
       </c>
       <c r="G1" s="9" t="n">
-        <v>48454.62963867188</v>
+        <v>20832.40740966797</v>
       </c>
       <c r="H1" s="9" t="n">
-        <v>2207.407470703125</v>
+        <v>24772.22229003906</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
@@ -8315,27 +8315,13 @@
           <t>gsf.000005.prof.json</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
@@ -8343,27 +8329,13 @@
           <t>gsf.000006.prof.json</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
@@ -8371,27 +8343,13 @@
           <t>gsf.000007.prof.json</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B10" s="9" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="9" t="n"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
@@ -8399,27 +8357,13 @@
           <t>gsf.000008.prof.json</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
@@ -8427,27 +8371,13 @@
           <t>gsf.000009.prof.json</t>
         </is>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B12" s="9" t="n"/>
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="9" t="n"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="9" t="inlineStr">
@@ -8455,27 +8385,13 @@
           <t>gsf.000010.prof.json</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="9" t="n"/>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="9" t="n"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="9" t="inlineStr">
@@ -8483,27 +8399,13 @@
           <t>gsf.000011.prof.json</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="9" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="9" t="inlineStr">
@@ -8511,27 +8413,13 @@
           <t>gsf.000012.prof.json</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="9" t="n"/>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="9" t="n"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="9" t="inlineStr">
@@ -8539,27 +8427,13 @@
           <t>gsf.000013.prof.json</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+      <c r="H16" s="9" t="n"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="9" t="inlineStr">
@@ -8567,27 +8441,13 @@
           <t>gsf.000014.prof.json</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="9" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="9" t="inlineStr">
@@ -8595,27 +8455,13 @@
           <t>gsf.000015.prof.json</t>
         </is>
       </c>
-      <c r="B18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+      <c r="H18" s="9" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="9" t="inlineStr">
@@ -8623,27 +8469,13 @@
           <t>gsf.000016.prof.json</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+      <c r="H19" s="9" t="n"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="9" t="inlineStr">
@@ -8651,27 +8483,13 @@
           <t>gsf.000017.prof.json</t>
         </is>
       </c>
-      <c r="B20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+      <c r="H20" s="9" t="n"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="9" t="inlineStr">
@@ -8679,27 +8497,13 @@
           <t>gsf.000018.prof.json</t>
         </is>
       </c>
-      <c r="B21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+      <c r="H21" s="9" t="n"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="9" t="inlineStr">
@@ -8707,27 +8511,13 @@
           <t>gsf.000019.prof.json</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+      <c r="H22" s="9" t="n"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="9" t="inlineStr">
@@ -8735,18 +8525,10 @@
           <t>gsf.000020.prof.json</t>
         </is>
       </c>
-      <c r="B23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
       <c r="F23" s="9" t="n"/>
       <c r="G23" s="9" t="n"/>
       <c r="H23" s="9" t="n"/>
@@ -16049,25 +15831,25 @@
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="9" t="n"/>
       <c r="B1" s="9" t="n">
-        <v>331.4814453125</v>
+        <v>4832.407409667969</v>
       </c>
       <c r="C1" s="9" t="n">
-        <v>24029.6296081543</v>
+        <v>43790.74072265625</v>
       </c>
       <c r="D1" s="9" t="n">
-        <v>691823.1480712891</v>
+        <v>231532.4074707031</v>
       </c>
       <c r="E1" s="9" t="n">
-        <v>182823.1481628418</v>
+        <v>322.2222900390625</v>
       </c>
       <c r="F1" s="9" t="n">
-        <v>1157.407348632812</v>
+        <v>808.3333435058594</v>
       </c>
       <c r="G1" s="9" t="n">
-        <v>48454.62963867188</v>
+        <v>20832.40740966797</v>
       </c>
       <c r="H1" s="9" t="n">
-        <v>2207.407470703125</v>
+        <v>24772.22229003906</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
@@ -23679,22 +23461,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H1" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1920" yWindow="1740" windowWidth="25128" windowHeight="12120" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MinRuntimeFirst" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MaxRuntimeFirst" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="OutDegreesFirst" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="OutDegreesLast" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FromCriticalPath" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Greedy" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FromCriticalPath" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Greedy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MinRuntimeFirst" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MaxRuntimeFirst" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="OutDegreesFirst" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="OutDegreesLast" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -395,13 +395,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
@@ -409,26 +409,15 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="C1" t="n">
-        <v>3985.185180664062</v>
-      </c>
-      <c r="D1" t="n">
-        <v>42805.55554199219</v>
-      </c>
-      <c r="E1" t="n">
-        <v>461805.5556640625</v>
-      </c>
-      <c r="F1" t="n">
-        <v>306.4814453125</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1069732.407409668</v>
-      </c>
-      <c r="H1" t="n">
-        <v>741.6666870117188</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1408377.777770996</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -437,6 +426,9 @@
           <t>gsf.-00001.prof.json</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>1229831737.037094</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -445,28 +437,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68861274.99975586</v>
-      </c>
-      <c r="C3" t="n">
-        <v>68069868.51844788</v>
-      </c>
-      <c r="D3" t="n">
-        <v>66713806.48143005</v>
-      </c>
-      <c r="E3" t="n">
-        <v>66148526.85198975</v>
-      </c>
-      <c r="F3" t="n">
-        <v>68975899.99995422</v>
-      </c>
-      <c r="G3" t="n">
-        <v>66622521.29638672</v>
-      </c>
-      <c r="H3" t="n">
-        <v>69189193.51856995</v>
-      </c>
-      <c r="I3" t="n">
-        <v>68546119.44459534</v>
+        <v>65217812.03695679</v>
       </c>
     </row>
     <row r="4">
@@ -475,30 +446,6 @@
           <t>gsf.000001.prof.json</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>73087260.18510437</v>
-      </c>
-      <c r="C4" t="n">
-        <v>74731547.22210693</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73017264.81474304</v>
-      </c>
-      <c r="E4" t="n">
-        <v>72087633.33338928</v>
-      </c>
-      <c r="F4" t="n">
-        <v>71737415.74072266</v>
-      </c>
-      <c r="G4" t="n">
-        <v>71860411.11112976</v>
-      </c>
-      <c r="H4" t="n">
-        <v>71799163.88887024</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71088850.92585754</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,30 +453,6 @@
           <t>gsf.000002.prof.json</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>83742359.25947571</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80802058.33334351</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79445083.33331299</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80317834.25949097</v>
-      </c>
-      <c r="F5" t="n">
-        <v>82636823.14825439</v>
-      </c>
-      <c r="G5" t="n">
-        <v>85951752.77812195</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74876628.70393372</v>
-      </c>
-      <c r="I5" t="n">
-        <v>80792544.44488525</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -537,30 +460,6 @@
           <t>gsf.000003.prof.json</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>81658288.88876343</v>
-      </c>
-      <c r="C6" t="n">
-        <v>80858933.33314514</v>
-      </c>
-      <c r="D6" t="n">
-        <v>84427158.33320618</v>
-      </c>
-      <c r="E6" t="n">
-        <v>82215962.03701782</v>
-      </c>
-      <c r="F6" t="n">
-        <v>84368997.22245789</v>
-      </c>
-      <c r="G6" t="n">
-        <v>86404112.96281433</v>
-      </c>
-      <c r="H6" t="n">
-        <v>83405726.85162354</v>
-      </c>
-      <c r="I6" t="n">
-        <v>86074732.40744019</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -568,30 +467,6 @@
           <t>gsf.000004.prof.json</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>85625400.92605591</v>
-      </c>
-      <c r="C7" t="n">
-        <v>84722777.77786255</v>
-      </c>
-      <c r="D7" t="n">
-        <v>84991896.29647827</v>
-      </c>
-      <c r="E7" t="n">
-        <v>85918331.4815979</v>
-      </c>
-      <c r="F7" t="n">
-        <v>84154117.59274292</v>
-      </c>
-      <c r="G7" t="n">
-        <v>85035088.88909912</v>
-      </c>
-      <c r="H7" t="n">
-        <v>84469450.92581177</v>
-      </c>
-      <c r="I7" t="n">
-        <v>85492654.6307373</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -599,30 +474,6 @@
           <t>gsf.000005.prof.json</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>87574022.22192383</v>
-      </c>
-      <c r="C8" t="n">
-        <v>83062477.77789307</v>
-      </c>
-      <c r="D8" t="n">
-        <v>85390953.70379639</v>
-      </c>
-      <c r="E8" t="n">
-        <v>87944222.22238159</v>
-      </c>
-      <c r="F8" t="n">
-        <v>87163077.77810669</v>
-      </c>
-      <c r="G8" t="n">
-        <v>86755549.99993896</v>
-      </c>
-      <c r="H8" t="n">
-        <v>84266514.81451416</v>
-      </c>
-      <c r="I8" t="n">
-        <v>85464115.74090576</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -630,30 +481,6 @@
           <t>gsf.000006.prof.json</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>89352147.22293091</v>
-      </c>
-      <c r="C9" t="n">
-        <v>87887387.03683472</v>
-      </c>
-      <c r="D9" t="n">
-        <v>87464835.18554688</v>
-      </c>
-      <c r="E9" t="n">
-        <v>86050532.40725708</v>
-      </c>
-      <c r="F9" t="n">
-        <v>89189907.40744019</v>
-      </c>
-      <c r="G9" t="n">
-        <v>90015797.22229004</v>
-      </c>
-      <c r="H9" t="n">
-        <v>90226987.9630127</v>
-      </c>
-      <c r="I9" t="n">
-        <v>88426652.77798462</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -661,30 +488,6 @@
           <t>gsf.000007.prof.json</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>87919550.00018311</v>
-      </c>
-      <c r="C10" t="n">
-        <v>88096879.62939453</v>
-      </c>
-      <c r="D10" t="n">
-        <v>87826879.62857056</v>
-      </c>
-      <c r="E10" t="n">
-        <v>89795448.14804077</v>
-      </c>
-      <c r="F10" t="n">
-        <v>87412188.88845825</v>
-      </c>
-      <c r="G10" t="n">
-        <v>85109622.22225952</v>
-      </c>
-      <c r="H10" t="n">
-        <v>88048545.37036133</v>
-      </c>
-      <c r="I10" t="n">
-        <v>86595442.59280396</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -692,60 +495,12 @@
           <t>gsf.000008.prof.json</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>87835861.11148071</v>
-      </c>
-      <c r="C11" t="n">
-        <v>87737656.48126221</v>
-      </c>
-      <c r="D11" t="n">
-        <v>84554067.59262085</v>
-      </c>
-      <c r="E11" t="n">
-        <v>87048619.44491577</v>
-      </c>
-      <c r="F11" t="n">
-        <v>91026606.48162842</v>
-      </c>
-      <c r="G11" t="n">
-        <v>88048270.37042236</v>
-      </c>
-      <c r="H11" t="n">
-        <v>90100561.11160278</v>
-      </c>
-      <c r="I11" t="n">
-        <v>87371833.33343506</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>gsf.000009.prof.json</t>
         </is>
-      </c>
-      <c r="B12" t="n">
-        <v>85418988.88922119</v>
-      </c>
-      <c r="C12" t="n">
-        <v>85016958.33297729</v>
-      </c>
-      <c r="D12" t="n">
-        <v>87791133.33297729</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87339036.11138916</v>
-      </c>
-      <c r="F12" t="n">
-        <v>88012187.03652954</v>
-      </c>
-      <c r="G12" t="n">
-        <v>83628794.44464111</v>
-      </c>
-      <c r="H12" t="n">
-        <v>86904544.44448853</v>
-      </c>
-      <c r="I12" t="n">
-        <v>88826724.07421875</v>
       </c>
     </row>
     <row r="13">
@@ -4469,13 +4224,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
@@ -4483,26 +4238,10 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="C1" t="n">
-        <v>3985.185180664062</v>
-      </c>
-      <c r="D1" t="n">
-        <v>42805.55554199219</v>
-      </c>
-      <c r="E1" t="n">
-        <v>461805.5556640625</v>
-      </c>
-      <c r="F1" t="n">
-        <v>306.4814453125</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1069732.407409668</v>
-      </c>
-      <c r="H1" t="n">
-        <v>741.6666870117188</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1408377.777770996</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -8309,7 +8048,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
@@ -8318,25 +8057,25 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>306815.7407531738</v>
       </c>
       <c r="D1" t="n">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>84258.33337402344</v>
       </c>
       <c r="F1" t="n">
-        <v>1</v>
+        <v>36939.81481933594</v>
       </c>
       <c r="G1" t="n">
-        <v>1</v>
+        <v>383351.8518066406</v>
       </c>
       <c r="H1" t="n">
-        <v>1</v>
+        <v>4317.592529296875</v>
       </c>
       <c r="I1" t="n">
-        <v>1</v>
+        <v>258883.3332519531</v>
       </c>
     </row>
     <row r="2">
@@ -12139,11 +11878,11 @@
   </sheetPr>
   <dimension ref="A1:I542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
@@ -12152,25 +11891,25 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>306815.7407531738</v>
       </c>
       <c r="D1" t="n">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>84258.33337402344</v>
       </c>
       <c r="F1" t="n">
-        <v>1</v>
+        <v>36939.81481933594</v>
       </c>
       <c r="G1" t="n">
-        <v>1</v>
+        <v>383351.8518066406</v>
       </c>
       <c r="H1" t="n">
-        <v>1</v>
+        <v>4317.592529296875</v>
       </c>
       <c r="I1" t="n">
-        <v>1</v>
+        <v>258883.3332519531</v>
       </c>
     </row>
     <row r="2">
@@ -15971,7 +15710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15984,6 +15723,27 @@
         <is>
           <t>Regular</t>
         </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -19784,7 +19544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19798,6 +19558,27 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19812,9 +19593,6 @@
           <t>gsf.000000.prof.json</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>66862934.25926208</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19822,9 +19600,6 @@
           <t>gsf.000001.prof.json</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>69620646.29641724</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19832,9 +19607,6 @@
           <t>gsf.000002.prof.json</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>77970927.77783203</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19842,9 +19614,6 @@
           <t>gsf.000003.prof.json</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>80758165.74087524</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19852,9 +19621,6 @@
           <t>gsf.000004.prof.json</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>83067656.48144531</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19862,9 +19628,6 @@
           <t>gsf.000005.prof.json</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>85182528.70379639</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19872,9 +19635,6 @@
           <t>gsf.000006.prof.json</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>87841758.33374023</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19882,9 +19642,6 @@
           <t>gsf.000007.prof.json</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>83234182.40725708</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19892,18 +19649,12 @@
           <t>gsf.000008.prof.json</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>87953367.59240723</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>gsf.000009.prof.json</t>
         </is>
-      </c>
-      <c r="B12" t="n">
-        <v>85447440.74102783</v>
       </c>
     </row>
     <row r="13">
